--- a/database/seeders/excel/user_prod.xlsx
+++ b/database/seeders/excel/user_prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C15CE38-700C-6842-99FE-7BA7BA830327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD9DE4-9AF4-4C2A-BB19-69C69A160E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Pengarah Imigresen Negeri</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>Ahmad Najmi bin Sidek</t>
   </si>
@@ -35,13 +32,352 @@
   </si>
   <si>
     <t>0136134022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ammiezian@imi.gov.my </t>
+  </si>
+  <si>
+    <t>jainudin@imi.gov.my</t>
+  </si>
+  <si>
+    <t>afakaruddin@imi.gov.my</t>
+  </si>
+  <si>
+    <t>norzakiah@imi.gov.my</t>
+  </si>
+  <si>
+    <t>yazeed@imi.gov.my</t>
+  </si>
+  <si>
+    <t>shira@imi.gov.my</t>
+  </si>
+  <si>
+    <t>nur_hikma@imi.gov.my</t>
+  </si>
+  <si>
+    <t>lenny.esma@imi.gov.my</t>
+  </si>
+  <si>
+    <t>shafarol@imi.gov.my</t>
+  </si>
+  <si>
+    <t>AMMIEZIAN BINTI HARRY</t>
+  </si>
+  <si>
+    <t>JAINUDIN BIN ABDUL MAJID ENTI</t>
+  </si>
+  <si>
+    <t>AHMAD FAKARUDDIN BIN WAN MOHAMED</t>
+  </si>
+  <si>
+    <t>NORZAKIAH BINTI ABD AZIZ</t>
+  </si>
+  <si>
+    <t>YAZEED BIN TUAH</t>
+  </si>
+  <si>
+    <t>INSHIRAH NADIA BINTI A.JALIL</t>
+  </si>
+  <si>
+    <t>NUR HIKMA BINTI ABD RAHMAN</t>
+  </si>
+  <si>
+    <t>LENNY ESMA BINTI TOMADI</t>
+  </si>
+  <si>
+    <t>MOHD SHAFAROL WAHID BIN MAT SAAD</t>
+  </si>
+  <si>
+    <t>011-1612 4266</t>
+  </si>
+  <si>
+    <t>016-812 3450</t>
+  </si>
+  <si>
+    <t>016-6773729</t>
+  </si>
+  <si>
+    <t>012-2858713</t>
+  </si>
+  <si>
+    <t>019-4394937</t>
+  </si>
+  <si>
+    <t>014-8976777</t>
+  </si>
+  <si>
+    <t>019-8340462</t>
+  </si>
+  <si>
+    <t>012-4231404</t>
+  </si>
+  <si>
+    <t>012-5947573</t>
+  </si>
+  <si>
+    <t>BTMR</t>
+  </si>
+  <si>
+    <t>JIM</t>
+  </si>
+  <si>
+    <t>JIM Sabah</t>
+  </si>
+  <si>
+    <t>BHG KESELAMATAN DAN PASPORT</t>
+  </si>
+  <si>
+    <t>KUCHING</t>
+  </si>
+  <si>
+    <t>JIM KEDAH</t>
+  </si>
+  <si>
+    <t>981230430001</t>
+  </si>
+  <si>
+    <t>860702495248</t>
+  </si>
+  <si>
+    <t>770415125499</t>
+  </si>
+  <si>
+    <t>820309015555</t>
+  </si>
+  <si>
+    <t>850601065792</t>
+  </si>
+  <si>
+    <t>800604135383</t>
+  </si>
+  <si>
+    <t>820620145854</t>
+  </si>
+  <si>
+    <t>861127525766</t>
+  </si>
+  <si>
+    <t>831202015778</t>
+  </si>
+  <si>
+    <t>840406025315</t>
+  </si>
+  <si>
+    <t>AMMIE</t>
+  </si>
+  <si>
+    <t>JAINUDIN</t>
+  </si>
+  <si>
+    <t>FAKARUDDIN</t>
+  </si>
+  <si>
+    <t>ZAKIAH</t>
+  </si>
+  <si>
+    <t>YAZEED</t>
+  </si>
+  <si>
+    <t>SHIRA</t>
+  </si>
+  <si>
+    <t>HIKMA</t>
+  </si>
+  <si>
+    <t>LENNY</t>
+  </si>
+  <si>
+    <t>SHAFAROL</t>
+  </si>
+  <si>
+    <t>MOHD AZIZI BIN MOHAMED MISMAN</t>
+  </si>
+  <si>
+    <t>810220105459</t>
+  </si>
+  <si>
+    <t>MOHD AZHAR BIN MUHAMAD ADNIN</t>
+  </si>
+  <si>
+    <t>880530235121</t>
+  </si>
+  <si>
+    <t>MUHAMAD FARISH IRFAN BIN MOHD AZEMAN</t>
+  </si>
+  <si>
+    <t>010629011233</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AIMAN BIN ABDUL RAHIM</t>
+  </si>
+  <si>
+    <t>980103036441</t>
+  </si>
+  <si>
+    <t>NIK MOHAMAD IZZAT BIN MOHAMAD RAZALI</t>
+  </si>
+  <si>
+    <t>950806036221</t>
+  </si>
+  <si>
+    <t>SITI NOR SHAAIRAH BINTI MOHD NASRAN</t>
+  </si>
+  <si>
+    <t>000402060330</t>
+  </si>
+  <si>
+    <t>MOHAMMED NASARI BIN YAMAN</t>
+  </si>
+  <si>
+    <t>860106525789</t>
+  </si>
+  <si>
+    <t>AINA ZAHIDA BINTI AZMAN</t>
+  </si>
+  <si>
+    <t>991105105870</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ISHRAQI BIN MOHD RIZAL</t>
+  </si>
+  <si>
+    <t>020124100993</t>
+  </si>
+  <si>
+    <t>NASRUL AIDILASRI BIN ABU SAMAH</t>
+  </si>
+  <si>
+    <t>870321566005</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NAIM BIN SHAHUL HAMID</t>
+  </si>
+  <si>
+    <t>970225025303</t>
+  </si>
+  <si>
+    <t>AHMAD ZAKWAN HAKEEM BIN ZULKEFLLE</t>
+  </si>
+  <si>
+    <t>000223101985</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAFIZ ASNAWI BIN AZMAN</t>
+  </si>
+  <si>
+    <t>950314105489</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AIMAN BIN ABDUL KHALID</t>
+  </si>
+  <si>
+    <t>001201050237</t>
+  </si>
+  <si>
+    <t>NUR SYAFIQAH BINTI ROKEMAN</t>
+  </si>
+  <si>
+    <t>950327065340</t>
+  </si>
+  <si>
+    <t>mazizi@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0196578855</t>
+  </si>
+  <si>
+    <t>azharma@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0177492537</t>
+  </si>
+  <si>
+    <t>farishazeman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0177828736</t>
+  </si>
+  <si>
+    <t>aimanrahim@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0132167598</t>
+  </si>
+  <si>
+    <t>izzatrazali@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0145052201</t>
+  </si>
+  <si>
+    <t>shaairahmn@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01129271507</t>
+  </si>
+  <si>
+    <t>nasariyaman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0193703205</t>
+  </si>
+  <si>
+    <t>zahidaazman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0193002641</t>
+  </si>
+  <si>
+    <t>ishraqirizal@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0172915854</t>
+  </si>
+  <si>
+    <t>nasrulsamah@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0162500076</t>
+  </si>
+  <si>
+    <t>naimhamid@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01110252597</t>
+  </si>
+  <si>
+    <t>zakwanzulkeflle@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01126058244</t>
+  </si>
+  <si>
+    <t>hafizazman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0147060906</t>
+  </si>
+  <si>
+    <t>aimankhalid@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01164143895</t>
+  </si>
+  <si>
+    <t>syafiqahrokeman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0139506107</t>
+  </si>
+  <si>
+    <t>CONTRACTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +398,21 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -86,22 +437,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="15">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{7EA4BE90-1886-4CA2-BEC1-79E2FE0497B9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="12" xr:uid="{7114685B-08E4-4D3C-8318-E437BD03A741}"/>
+    <cellStyle name="Normal 11" xfId="14" xr:uid="{2DF6ACEA-4522-4AB5-A7A0-C21A42C19CF3}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{86259078-29A3-4330-8858-D1983190EB38}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{48D9B775-ECB2-4585-A572-4AEBBE9530F0}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{98F3A0C7-7E16-4689-9046-F44597D0B6F1}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{B67556AF-25D5-4FFE-9477-6942D4F5D76D}"/>
+    <cellStyle name="Normal 6" xfId="8" xr:uid="{24BF333E-7A39-4548-A8D6-FC1EEE8F4B6B}"/>
+    <cellStyle name="Normal 7" xfId="9" xr:uid="{0B69176B-9323-4839-BB93-1B07A62CEB95}"/>
+    <cellStyle name="Normal 8" xfId="10" xr:uid="{05D4B35C-B346-4077-A12C-A30578194331}"/>
+    <cellStyle name="Normal 9" xfId="11" xr:uid="{D6E4D00E-E8A9-4A57-ADB8-0A6AADA60976}"/>
     <cellStyle name="Style 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Style 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
@@ -413,50 +907,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F27" activeCellId="1" sqref="G12:G25 F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2">
-        <v>981230430001</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{00A53D95-339C-7240-999F-8AEE38B642CD}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{A5987366-57DA-4EE3-9962-32F333FD912A}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{A2042E6F-E59C-4CE2-ACCC-1BFC84E752B8}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{0D281315-D522-4666-B8D4-E2E58F7AF571}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{5DF02B75-141A-401F-9D9C-D98349248D4F}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{66A25FAD-1522-4E34-8597-C0DBB3B7AB54}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{CD7E5811-9549-49A2-BF89-5BD8FFF881EB}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{F3598995-A561-46A6-A53D-8B94E156D7E4}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{A22CE351-684E-462D-BC3C-C4D4D210AA59}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{A973BA5B-39C1-4CB2-B40A-75C06B58BBDC}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{A280DC6F-6D9B-43DF-8F20-30F30500B6D9}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{52FFEEE4-4468-4195-9CDD-389BAF065AC8}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{66B3D496-EE60-4BCB-A716-AE9691C5F9FC}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{DCFD7FA1-5E72-45A0-905D-7AD84F35EEB5}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{297B5111-E1C8-4BDB-B3BC-44B989ED6EB2}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{7C80FA14-2E4A-438A-B484-B727EB46A4DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/user_prod.xlsx
+++ b/database/seeders/excel/user_prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD9DE4-9AF4-4C2A-BB19-69C69A160E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66800AA-54B9-3A40-A51C-5B90E8B29469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,18 +121,9 @@
     <t>JIM</t>
   </si>
   <si>
-    <t>JIM Sabah</t>
-  </si>
-  <si>
     <t>BHG KESELAMATAN DAN PASPORT</t>
   </si>
   <si>
-    <t>KUCHING</t>
-  </si>
-  <si>
-    <t>JIM KEDAH</t>
-  </si>
-  <si>
     <t>981230430001</t>
   </si>
   <si>
@@ -371,6 +362,15 @@
   </si>
   <si>
     <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t>UTC KEDAH</t>
+  </si>
+  <si>
+    <t>UTC KUCHING</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KOTA KINABALU</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -910,26 +910,26 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" activeCellId="1" sqref="G12:G25 F27"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -941,15 +941,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -958,21 +958,21 @@
         <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -981,21 +981,21 @@
         <v>23</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -1004,21 +1004,21 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -1027,21 +1027,21 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -1050,21 +1050,21 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1073,21 +1073,21 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1096,21 +1096,21 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -1119,21 +1119,21 @@
         <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1142,265 +1142,265 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="E13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="E14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="E15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="E17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="E18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="E19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="E20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="E21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="E22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="C23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="E23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="E24" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="C25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="G25" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/user_prod.xlsx
+++ b/database/seeders/excel/user_prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C15CE38-700C-6842-99FE-7BA7BA830327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66800AA-54B9-3A40-A51C-5B90E8B29469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Pengarah Imigresen Negeri</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>Ahmad Najmi bin Sidek</t>
   </si>
@@ -35,13 +32,352 @@
   </si>
   <si>
     <t>0136134022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ammiezian@imi.gov.my </t>
+  </si>
+  <si>
+    <t>jainudin@imi.gov.my</t>
+  </si>
+  <si>
+    <t>afakaruddin@imi.gov.my</t>
+  </si>
+  <si>
+    <t>norzakiah@imi.gov.my</t>
+  </si>
+  <si>
+    <t>yazeed@imi.gov.my</t>
+  </si>
+  <si>
+    <t>shira@imi.gov.my</t>
+  </si>
+  <si>
+    <t>nur_hikma@imi.gov.my</t>
+  </si>
+  <si>
+    <t>lenny.esma@imi.gov.my</t>
+  </si>
+  <si>
+    <t>shafarol@imi.gov.my</t>
+  </si>
+  <si>
+    <t>AMMIEZIAN BINTI HARRY</t>
+  </si>
+  <si>
+    <t>JAINUDIN BIN ABDUL MAJID ENTI</t>
+  </si>
+  <si>
+    <t>AHMAD FAKARUDDIN BIN WAN MOHAMED</t>
+  </si>
+  <si>
+    <t>NORZAKIAH BINTI ABD AZIZ</t>
+  </si>
+  <si>
+    <t>YAZEED BIN TUAH</t>
+  </si>
+  <si>
+    <t>INSHIRAH NADIA BINTI A.JALIL</t>
+  </si>
+  <si>
+    <t>NUR HIKMA BINTI ABD RAHMAN</t>
+  </si>
+  <si>
+    <t>LENNY ESMA BINTI TOMADI</t>
+  </si>
+  <si>
+    <t>MOHD SHAFAROL WAHID BIN MAT SAAD</t>
+  </si>
+  <si>
+    <t>011-1612 4266</t>
+  </si>
+  <si>
+    <t>016-812 3450</t>
+  </si>
+  <si>
+    <t>016-6773729</t>
+  </si>
+  <si>
+    <t>012-2858713</t>
+  </si>
+  <si>
+    <t>019-4394937</t>
+  </si>
+  <si>
+    <t>014-8976777</t>
+  </si>
+  <si>
+    <t>019-8340462</t>
+  </si>
+  <si>
+    <t>012-4231404</t>
+  </si>
+  <si>
+    <t>012-5947573</t>
+  </si>
+  <si>
+    <t>BTMR</t>
+  </si>
+  <si>
+    <t>JIM</t>
+  </si>
+  <si>
+    <t>BHG KESELAMATAN DAN PASPORT</t>
+  </si>
+  <si>
+    <t>981230430001</t>
+  </si>
+  <si>
+    <t>860702495248</t>
+  </si>
+  <si>
+    <t>770415125499</t>
+  </si>
+  <si>
+    <t>820309015555</t>
+  </si>
+  <si>
+    <t>850601065792</t>
+  </si>
+  <si>
+    <t>800604135383</t>
+  </si>
+  <si>
+    <t>820620145854</t>
+  </si>
+  <si>
+    <t>861127525766</t>
+  </si>
+  <si>
+    <t>831202015778</t>
+  </si>
+  <si>
+    <t>840406025315</t>
+  </si>
+  <si>
+    <t>AMMIE</t>
+  </si>
+  <si>
+    <t>JAINUDIN</t>
+  </si>
+  <si>
+    <t>FAKARUDDIN</t>
+  </si>
+  <si>
+    <t>ZAKIAH</t>
+  </si>
+  <si>
+    <t>YAZEED</t>
+  </si>
+  <si>
+    <t>SHIRA</t>
+  </si>
+  <si>
+    <t>HIKMA</t>
+  </si>
+  <si>
+    <t>LENNY</t>
+  </si>
+  <si>
+    <t>SHAFAROL</t>
+  </si>
+  <si>
+    <t>MOHD AZIZI BIN MOHAMED MISMAN</t>
+  </si>
+  <si>
+    <t>810220105459</t>
+  </si>
+  <si>
+    <t>MOHD AZHAR BIN MUHAMAD ADNIN</t>
+  </si>
+  <si>
+    <t>880530235121</t>
+  </si>
+  <si>
+    <t>MUHAMAD FARISH IRFAN BIN MOHD AZEMAN</t>
+  </si>
+  <si>
+    <t>010629011233</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AIMAN BIN ABDUL RAHIM</t>
+  </si>
+  <si>
+    <t>980103036441</t>
+  </si>
+  <si>
+    <t>NIK MOHAMAD IZZAT BIN MOHAMAD RAZALI</t>
+  </si>
+  <si>
+    <t>950806036221</t>
+  </si>
+  <si>
+    <t>SITI NOR SHAAIRAH BINTI MOHD NASRAN</t>
+  </si>
+  <si>
+    <t>000402060330</t>
+  </si>
+  <si>
+    <t>MOHAMMED NASARI BIN YAMAN</t>
+  </si>
+  <si>
+    <t>860106525789</t>
+  </si>
+  <si>
+    <t>AINA ZAHIDA BINTI AZMAN</t>
+  </si>
+  <si>
+    <t>991105105870</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ISHRAQI BIN MOHD RIZAL</t>
+  </si>
+  <si>
+    <t>020124100993</t>
+  </si>
+  <si>
+    <t>NASRUL AIDILASRI BIN ABU SAMAH</t>
+  </si>
+  <si>
+    <t>870321566005</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NAIM BIN SHAHUL HAMID</t>
+  </si>
+  <si>
+    <t>970225025303</t>
+  </si>
+  <si>
+    <t>AHMAD ZAKWAN HAKEEM BIN ZULKEFLLE</t>
+  </si>
+  <si>
+    <t>000223101985</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAFIZ ASNAWI BIN AZMAN</t>
+  </si>
+  <si>
+    <t>950314105489</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AIMAN BIN ABDUL KHALID</t>
+  </si>
+  <si>
+    <t>001201050237</t>
+  </si>
+  <si>
+    <t>NUR SYAFIQAH BINTI ROKEMAN</t>
+  </si>
+  <si>
+    <t>950327065340</t>
+  </si>
+  <si>
+    <t>mazizi@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0196578855</t>
+  </si>
+  <si>
+    <t>azharma@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0177492537</t>
+  </si>
+  <si>
+    <t>farishazeman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0177828736</t>
+  </si>
+  <si>
+    <t>aimanrahim@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0132167598</t>
+  </si>
+  <si>
+    <t>izzatrazali@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0145052201</t>
+  </si>
+  <si>
+    <t>shaairahmn@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01129271507</t>
+  </si>
+  <si>
+    <t>nasariyaman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0193703205</t>
+  </si>
+  <si>
+    <t>zahidaazman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0193002641</t>
+  </si>
+  <si>
+    <t>ishraqirizal@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0172915854</t>
+  </si>
+  <si>
+    <t>nasrulsamah@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0162500076</t>
+  </si>
+  <si>
+    <t>naimhamid@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01110252597</t>
+  </si>
+  <si>
+    <t>zakwanzulkeflle@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01126058244</t>
+  </si>
+  <si>
+    <t>hafizazman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0147060906</t>
+  </si>
+  <si>
+    <t>aimankhalid@heitech.com.my</t>
+  </si>
+  <si>
+    <t>01164143895</t>
+  </si>
+  <si>
+    <t>syafiqahrokeman@heitech.com.my</t>
+  </si>
+  <si>
+    <t>0139506107</t>
+  </si>
+  <si>
+    <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t>UTC KEDAH</t>
+  </si>
+  <si>
+    <t>UTC KUCHING</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KOTA KINABALU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +398,21 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -86,22 +437,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="15">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{7EA4BE90-1886-4CA2-BEC1-79E2FE0497B9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="12" xr:uid="{7114685B-08E4-4D3C-8318-E437BD03A741}"/>
+    <cellStyle name="Normal 11" xfId="14" xr:uid="{2DF6ACEA-4522-4AB5-A7A0-C21A42C19CF3}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{86259078-29A3-4330-8858-D1983190EB38}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{48D9B775-ECB2-4585-A572-4AEBBE9530F0}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{98F3A0C7-7E16-4689-9046-F44597D0B6F1}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{B67556AF-25D5-4FFE-9477-6942D4F5D76D}"/>
+    <cellStyle name="Normal 6" xfId="8" xr:uid="{24BF333E-7A39-4548-A8D6-FC1EEE8F4B6B}"/>
+    <cellStyle name="Normal 7" xfId="9" xr:uid="{0B69176B-9323-4839-BB93-1B07A62CEB95}"/>
+    <cellStyle name="Normal 8" xfId="10" xr:uid="{05D4B35C-B346-4077-A12C-A30578194331}"/>
+    <cellStyle name="Normal 9" xfId="11" xr:uid="{D6E4D00E-E8A9-4A57-ADB8-0A6AADA60976}"/>
     <cellStyle name="Style 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Style 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
@@ -413,50 +907,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2">
-        <v>981230430001</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{00A53D95-339C-7240-999F-8AEE38B642CD}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{A5987366-57DA-4EE3-9962-32F333FD912A}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{A2042E6F-E59C-4CE2-ACCC-1BFC84E752B8}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{0D281315-D522-4666-B8D4-E2E58F7AF571}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{5DF02B75-141A-401F-9D9C-D98349248D4F}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{66A25FAD-1522-4E34-8597-C0DBB3B7AB54}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{CD7E5811-9549-49A2-BF89-5BD8FFF881EB}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{F3598995-A561-46A6-A53D-8B94E156D7E4}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{A22CE351-684E-462D-BC3C-C4D4D210AA59}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{A973BA5B-39C1-4CB2-B40A-75C06B58BBDC}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{A280DC6F-6D9B-43DF-8F20-30F30500B6D9}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{52FFEEE4-4468-4195-9CDD-389BAF065AC8}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{66B3D496-EE60-4BCB-A716-AE9691C5F9FC}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{DCFD7FA1-5E72-45A0-905D-7AD84F35EEB5}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{297B5111-E1C8-4BDB-B3BC-44B989ED6EB2}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{7C80FA14-2E4A-438A-B484-B727EB46A4DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/user_prod.xlsx
+++ b/database/seeders/excel/user_prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66800AA-54B9-3A40-A51C-5B90E8B29469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD5DF6D-5132-4116-9CEE-591CFDA5E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>Ahmad Najmi bin Sidek</t>
   </si>
@@ -34,153 +34,12 @@
     <t>0136134022</t>
   </si>
   <si>
-    <t xml:space="preserve">ammiezian@imi.gov.my </t>
-  </si>
-  <si>
-    <t>jainudin@imi.gov.my</t>
-  </si>
-  <si>
-    <t>afakaruddin@imi.gov.my</t>
-  </si>
-  <si>
-    <t>norzakiah@imi.gov.my</t>
-  </si>
-  <si>
-    <t>yazeed@imi.gov.my</t>
-  </si>
-  <si>
-    <t>shira@imi.gov.my</t>
-  </si>
-  <si>
-    <t>nur_hikma@imi.gov.my</t>
-  </si>
-  <si>
-    <t>lenny.esma@imi.gov.my</t>
-  </si>
-  <si>
-    <t>shafarol@imi.gov.my</t>
-  </si>
-  <si>
-    <t>AMMIEZIAN BINTI HARRY</t>
-  </si>
-  <si>
-    <t>JAINUDIN BIN ABDUL MAJID ENTI</t>
-  </si>
-  <si>
-    <t>AHMAD FAKARUDDIN BIN WAN MOHAMED</t>
-  </si>
-  <si>
-    <t>NORZAKIAH BINTI ABD AZIZ</t>
-  </si>
-  <si>
-    <t>YAZEED BIN TUAH</t>
-  </si>
-  <si>
-    <t>INSHIRAH NADIA BINTI A.JALIL</t>
-  </si>
-  <si>
-    <t>NUR HIKMA BINTI ABD RAHMAN</t>
-  </si>
-  <si>
-    <t>LENNY ESMA BINTI TOMADI</t>
-  </si>
-  <si>
-    <t>MOHD SHAFAROL WAHID BIN MAT SAAD</t>
-  </si>
-  <si>
-    <t>011-1612 4266</t>
-  </si>
-  <si>
-    <t>016-812 3450</t>
-  </si>
-  <si>
-    <t>016-6773729</t>
-  </si>
-  <si>
-    <t>012-2858713</t>
-  </si>
-  <si>
-    <t>019-4394937</t>
-  </si>
-  <si>
-    <t>014-8976777</t>
-  </si>
-  <si>
-    <t>019-8340462</t>
-  </si>
-  <si>
-    <t>012-4231404</t>
-  </si>
-  <si>
-    <t>012-5947573</t>
-  </si>
-  <si>
     <t>BTMR</t>
   </si>
   <si>
-    <t>JIM</t>
-  </si>
-  <si>
-    <t>BHG KESELAMATAN DAN PASPORT</t>
-  </si>
-  <si>
     <t>981230430001</t>
   </si>
   <si>
-    <t>860702495248</t>
-  </si>
-  <si>
-    <t>770415125499</t>
-  </si>
-  <si>
-    <t>820309015555</t>
-  </si>
-  <si>
-    <t>850601065792</t>
-  </si>
-  <si>
-    <t>800604135383</t>
-  </si>
-  <si>
-    <t>820620145854</t>
-  </si>
-  <si>
-    <t>861127525766</t>
-  </si>
-  <si>
-    <t>831202015778</t>
-  </si>
-  <si>
-    <t>840406025315</t>
-  </si>
-  <si>
-    <t>AMMIE</t>
-  </si>
-  <si>
-    <t>JAINUDIN</t>
-  </si>
-  <si>
-    <t>FAKARUDDIN</t>
-  </si>
-  <si>
-    <t>ZAKIAH</t>
-  </si>
-  <si>
-    <t>YAZEED</t>
-  </si>
-  <si>
-    <t>SHIRA</t>
-  </si>
-  <si>
-    <t>HIKMA</t>
-  </si>
-  <si>
-    <t>LENNY</t>
-  </si>
-  <si>
-    <t>SHAFAROL</t>
-  </si>
-  <si>
     <t>MOHD AZIZI BIN MOHAMED MISMAN</t>
   </si>
   <si>
@@ -364,13 +223,22 @@
     <t>CONTRACTOR</t>
   </si>
   <si>
-    <t>UTC KEDAH</t>
-  </si>
-  <si>
-    <t>UTC KUCHING</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KOTA KINABALU</t>
+    <t>Faryna Ahmad Mansur</t>
+  </si>
+  <si>
+    <t>790428075716</t>
+  </si>
+  <si>
+    <t>Asmidah Abdullah</t>
+  </si>
+  <si>
+    <t>760305115004</t>
+  </si>
+  <si>
+    <t>Suhani Mohd Sukor</t>
+  </si>
+  <si>
+    <t>800523016008</t>
   </si>
 </sst>
 </file>
@@ -509,7 +377,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
@@ -525,52 +393,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="15" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="15" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="15" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="15" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="14" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -578,16 +431,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="18">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{7EA4BE90-1886-4CA2-BEC1-79E2FE0497B9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="12" xr:uid="{7114685B-08E4-4D3C-8318-E437BD03A741}"/>
     <cellStyle name="Normal 11" xfId="14" xr:uid="{2DF6ACEA-4522-4AB5-A7A0-C21A42C19CF3}"/>
+    <cellStyle name="Normal 12" xfId="15" xr:uid="{A90CD423-7812-4C8A-BCD3-7C1A46C1A62C}"/>
+    <cellStyle name="Normal 13" xfId="16" xr:uid="{03A328A5-C6F9-4F1D-80C6-F32198E9FD87}"/>
+    <cellStyle name="Normal 14" xfId="17" xr:uid="{C8BCAD0E-78EF-487E-A907-F1525705D2C3}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{86259078-29A3-4330-8858-D1983190EB38}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{48D9B775-ECB2-4585-A572-4AEBBE9530F0}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{98F3A0C7-7E16-4689-9046-F44597D0B6F1}"/>
@@ -907,29 +765,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -941,486 +799,312 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="G18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>113</v>
+      <c r="G19" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{00A53D95-339C-7240-999F-8AEE38B642CD}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{A5987366-57DA-4EE3-9962-32F333FD912A}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{A2042E6F-E59C-4CE2-ACCC-1BFC84E752B8}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{0D281315-D522-4666-B8D4-E2E58F7AF571}"/>
-    <hyperlink ref="D14" r:id="rId5" xr:uid="{5DF02B75-141A-401F-9D9C-D98349248D4F}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{66A25FAD-1522-4E34-8597-C0DBB3B7AB54}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{CD7E5811-9549-49A2-BF89-5BD8FFF881EB}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{F3598995-A561-46A6-A53D-8B94E156D7E4}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{A22CE351-684E-462D-BC3C-C4D4D210AA59}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{A973BA5B-39C1-4CB2-B40A-75C06B58BBDC}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{A280DC6F-6D9B-43DF-8F20-30F30500B6D9}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{52FFEEE4-4468-4195-9CDD-389BAF065AC8}"/>
-    <hyperlink ref="D22" r:id="rId13" xr:uid="{66B3D496-EE60-4BCB-A716-AE9691C5F9FC}"/>
-    <hyperlink ref="D23" r:id="rId14" xr:uid="{DCFD7FA1-5E72-45A0-905D-7AD84F35EEB5}"/>
-    <hyperlink ref="D24" r:id="rId15" xr:uid="{297B5111-E1C8-4BDB-B3BC-44B989ED6EB2}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{7C80FA14-2E4A-438A-B484-B727EB46A4DE}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{A5987366-57DA-4EE3-9962-32F333FD912A}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{A2042E6F-E59C-4CE2-ACCC-1BFC84E752B8}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{0D281315-D522-4666-B8D4-E2E58F7AF571}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{5DF02B75-141A-401F-9D9C-D98349248D4F}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{66A25FAD-1522-4E34-8597-C0DBB3B7AB54}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{CD7E5811-9549-49A2-BF89-5BD8FFF881EB}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{F3598995-A561-46A6-A53D-8B94E156D7E4}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{A22CE351-684E-462D-BC3C-C4D4D210AA59}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{A973BA5B-39C1-4CB2-B40A-75C06B58BBDC}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{A280DC6F-6D9B-43DF-8F20-30F30500B6D9}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{52FFEEE4-4468-4195-9CDD-389BAF065AC8}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{66B3D496-EE60-4BCB-A716-AE9691C5F9FC}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{DCFD7FA1-5E72-45A0-905D-7AD84F35EEB5}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{297B5111-E1C8-4BDB-B3BC-44B989ED6EB2}"/>
+    <hyperlink ref="D16" r:id="rId16" xr:uid="{7C80FA14-2E4A-438A-B484-B727EB46A4DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/user_prod.xlsx
+++ b/database/seeders/excel/user_prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD5DF6D-5132-4116-9CEE-591CFDA5E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC687380-3BE5-B246-838D-DEF61F20FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>Ahmad Najmi bin Sidek</t>
   </si>
@@ -239,6 +239,57 @@
   </si>
   <si>
     <t>800523016008</t>
+  </si>
+  <si>
+    <t>FRONTLINER</t>
+  </si>
+  <si>
+    <t>981230430002</t>
+  </si>
+  <si>
+    <t>981230430003</t>
+  </si>
+  <si>
+    <t>981230430004</t>
+  </si>
+  <si>
+    <t>981230430005</t>
+  </si>
+  <si>
+    <t>BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>JIM</t>
+  </si>
+  <si>
+    <t>981230430006</t>
+  </si>
+  <si>
+    <t>Ahmad Najmi bin BTMR</t>
+  </si>
+  <si>
+    <t>Ahmad Najmi bin BTMR Second Level</t>
+  </si>
+  <si>
+    <t>Ahmad Najmi bin Frontliner</t>
+  </si>
+  <si>
+    <t>Ahmad Najmi bin Contractor</t>
+  </si>
+  <si>
+    <t>Ahmad Najmi bin Jim</t>
+  </si>
+  <si>
+    <t>Frontliner</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>BTMR Second Level</t>
   </si>
 </sst>
 </file>
@@ -397,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -433,9 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,24 +813,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -813,10 +861,10 @@
         <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -830,10 +878,10 @@
         <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -847,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -864,10 +912,10 @@
         <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -881,10 +929,10 @@
         <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -898,10 +946,10 @@
         <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -915,10 +963,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -932,10 +980,10 @@
         <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -949,10 +997,10 @@
         <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -966,10 +1014,10 @@
         <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -983,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
@@ -1000,10 +1048,10 @@
         <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -1017,10 +1065,10 @@
         <v>61</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
@@ -1034,10 +1082,10 @@
         <v>63</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1051,40 +1099,134 @@
         <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1105,6 +1247,10 @@
     <hyperlink ref="D14" r:id="rId14" xr:uid="{DCFD7FA1-5E72-45A0-905D-7AD84F35EEB5}"/>
     <hyperlink ref="D15" r:id="rId15" xr:uid="{297B5111-E1C8-4BDB-B3BC-44B989ED6EB2}"/>
     <hyperlink ref="D16" r:id="rId16" xr:uid="{7C80FA14-2E4A-438A-B484-B727EB46A4DE}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{BC5BF34E-AD48-E449-ABB9-6F82B949C040}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{243B8CB0-A9F9-CA49-B0B3-A877C8B7E04B}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{0EEEA357-6377-6D4F-8F24-F4FAB6261E35}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{D0ECCD59-D94B-C24B-9123-CDB7F5249EF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/user_prod.xlsx
+++ b/database/seeders/excel/user_prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC687380-3BE5-B246-838D-DEF61F20FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6923091-6604-4029-B2D1-4E6E3A723C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
   <si>
     <t>Ahmad Najmi bin Sidek</t>
   </si>
@@ -290,13 +290,190 @@
   </si>
   <si>
     <t>BTMR Second Level</t>
+  </si>
+  <si>
+    <t>MD FAIROO BIN HASHIM</t>
+  </si>
+  <si>
+    <t>0192609504</t>
+  </si>
+  <si>
+    <t>810621105767</t>
+  </si>
+  <si>
+    <t>mdfairoo@heitech.com.my</t>
+  </si>
+  <si>
+    <t>NUR KHAIRUNNISA BINTI NOR HASHARI</t>
+  </si>
+  <si>
+    <t>0173829378</t>
+  </si>
+  <si>
+    <t>010311100324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khairunnisah@heitech.com.my </t>
+  </si>
+  <si>
+    <t>ANIQ HAZIQ BIN AHEM</t>
+  </si>
+  <si>
+    <t>0143328096</t>
+  </si>
+  <si>
+    <t>010313131239</t>
+  </si>
+  <si>
+    <t>aniqahem@heitech.com.my</t>
+  </si>
+  <si>
+    <t>KHAIRIL EZUWAN BIN MUSTAFA</t>
+  </si>
+  <si>
+    <t>0166218048</t>
+  </si>
+  <si>
+    <t>910324035019</t>
+  </si>
+  <si>
+    <t>ezuwanm@heitech.com.my</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ADAM MUQHLIS BIN MOHAMAD HANIFF</t>
+  </si>
+  <si>
+    <t>0142944733</t>
+  </si>
+  <si>
+    <t>010210040027</t>
+  </si>
+  <si>
+    <t>muqhlishaniff@heitech.com.my</t>
+  </si>
+  <si>
+    <t>MUHAMAD AKMAL BIN NOOR SHARIFF</t>
+  </si>
+  <si>
+    <t>01158489638</t>
+  </si>
+  <si>
+    <t>960301106131</t>
+  </si>
+  <si>
+    <t>akmalms@heitech.com.my</t>
+  </si>
+  <si>
+    <t>ASYRAF NAZRUL HAQIM BIN ZAMZUBIR</t>
+  </si>
+  <si>
+    <t>0179133035</t>
+  </si>
+  <si>
+    <t>010221060293</t>
+  </si>
+  <si>
+    <t>haqimz@heitech.com.my</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZIKRY BIN KAMIN</t>
+  </si>
+  <si>
+    <t>01118697235</t>
+  </si>
+  <si>
+    <t>010807100475</t>
+  </si>
+  <si>
+    <t>zikrykamin@heitech.com.my</t>
+  </si>
+  <si>
+    <t>NUR FARHANA BINTI MOHD YUSOF</t>
+  </si>
+  <si>
+    <t>0107907827</t>
+  </si>
+  <si>
+    <t>000721050076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farhanayusof@heitech.com.my </t>
+  </si>
+  <si>
+    <t>MUHAMAD ADAM HARITH BIN MOHAMAD JOHARI ANAS</t>
+  </si>
+  <si>
+    <t>0125665681</t>
+  </si>
+  <si>
+    <t>000205070353</t>
+  </si>
+  <si>
+    <t>adamjohari@heitech.com.my</t>
+  </si>
+  <si>
+    <t>AIMAN SYAZWAN BIN YAZID</t>
+  </si>
+  <si>
+    <t>0198238389</t>
+  </si>
+  <si>
+    <t>021113101493</t>
+  </si>
+  <si>
+    <t>syazwanyazid@heitech.com.my</t>
+  </si>
+  <si>
+    <t>DZULHAILIE BIN ABD HAMID</t>
+  </si>
+  <si>
+    <t>0176603406</t>
+  </si>
+  <si>
+    <t>dzulhamid@heitech.com.my</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARIS IRZWAN BIN ISMAIL</t>
+  </si>
+  <si>
+    <t>01125515440</t>
+  </si>
+  <si>
+    <t>020804030511</t>
+  </si>
+  <si>
+    <t>irzwanismail@heitech.com.my</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ARIFF FARHAN BIN ASRI</t>
+  </si>
+  <si>
+    <t>0194805323</t>
+  </si>
+  <si>
+    <t>020227140859</t>
+  </si>
+  <si>
+    <t>farhanasri@heitech.com.my</t>
+  </si>
+  <si>
+    <t>ATHIRAH BINTI HASSANURI</t>
+  </si>
+  <si>
+    <t>0176404034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">athirahassanuri@heitech.com.my </t>
+  </si>
+  <si>
+    <t>HEITECH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +509,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -427,8 +615,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
@@ -447,8 +650,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -484,16 +689,44 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="18" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{7EA4BE90-1886-4CA2-BEC1-79E2FE0497B9}"/>
+    <cellStyle name="Hyperlink 3" xfId="19" xr:uid="{39C7CFAD-14AD-46F6-A931-C50B71D201BE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="12" xr:uid="{7114685B-08E4-4D3C-8318-E437BD03A741}"/>
     <cellStyle name="Normal 11" xfId="14" xr:uid="{2DF6ACEA-4522-4AB5-A7A0-C21A42C19CF3}"/>
     <cellStyle name="Normal 12" xfId="15" xr:uid="{A90CD423-7812-4C8A-BCD3-7C1A46C1A62C}"/>
     <cellStyle name="Normal 13" xfId="16" xr:uid="{03A328A5-C6F9-4F1D-80C6-F32198E9FD87}"/>
     <cellStyle name="Normal 14" xfId="17" xr:uid="{C8BCAD0E-78EF-487E-A907-F1525705D2C3}"/>
+    <cellStyle name="Normal 15" xfId="18" xr:uid="{EC1D4A93-04EE-40B9-9BB2-1961090EE4ED}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{86259078-29A3-4330-8858-D1983190EB38}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{48D9B775-ECB2-4585-A572-4AEBBE9530F0}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{98F3A0C7-7E16-4689-9046-F44597D0B6F1}"/>
@@ -813,24 +1046,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,8 +1079,11 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -863,8 +1099,11 @@
       <c r="G2" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -880,8 +1119,11 @@
       <c r="G3" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -897,8 +1139,11 @@
       <c r="G4" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -914,8 +1159,11 @@
       <c r="G5" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -931,8 +1179,11 @@
       <c r="G6" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -948,8 +1199,11 @@
       <c r="G7" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -965,8 +1219,11 @@
       <c r="G8" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -982,8 +1239,11 @@
       <c r="G9" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -999,8 +1259,11 @@
       <c r="G10" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1016,8 +1279,11 @@
       <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -1033,8 +1299,11 @@
       <c r="G12" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
@@ -1050,8 +1319,11 @@
       <c r="G13" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -1067,8 +1339,11 @@
       <c r="G14" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
@@ -1084,8 +1359,11 @@
       <c r="G15" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1101,8 +1379,11 @@
       <c r="G16" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>67</v>
       </c>
@@ -1112,8 +1393,11 @@
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>69</v>
       </c>
@@ -1123,8 +1407,11 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>71</v>
       </c>
@@ -1134,8 +1421,11 @@
       <c r="G19" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1154,8 +1444,11 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1174,8 +1467,11 @@
       <c r="G21" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1194,8 +1490,11 @@
       <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1214,8 +1513,11 @@
       <c r="G23" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1227,6 +1529,324 @@
       </c>
       <c r="G24" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="22">
+        <v>850914105097</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="22">
+        <v>961215145884</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1251,6 +1871,20 @@
     <hyperlink ref="D21" r:id="rId18" xr:uid="{243B8CB0-A9F9-CA49-B0B3-A877C8B7E04B}"/>
     <hyperlink ref="D22" r:id="rId19" xr:uid="{0EEEA357-6377-6D4F-8F24-F4FAB6261E35}"/>
     <hyperlink ref="D23" r:id="rId20" xr:uid="{D0ECCD59-D94B-C24B-9123-CDB7F5249EF8}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
